--- a/biology/Biochimie/Jean_Montreuil/Jean_Montreuil.xlsx
+++ b/biology/Biochimie/Jean_Montreuil/Jean_Montreuil.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean Montreuil, né le 11 octobre 1920 à Lille et mort[1] le 16 juillet 2010 à Arad en Roumanie, est un biochimiste français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Montreuil, né le 11 octobre 1920 à Lille et mort le 16 juillet 2010 à Arad en Roumanie, est un biochimiste français.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le professeur Jean Montreuil était un chercheur reconnu en biochimie moléculaire, et plus particulièrement en glycobiologie, qui consiste à étudier le rôle des sucres dans les cellules du corps humain, une discipline dont Jean Montreuil a été un pionnier et l'un des fondateurs.
-Il a notamment créé en 1958 le Laboratoire de chimie biologique de l'université des sciences et technologies de Lille à Lille : rue Gosselet puis en 1963 à Villeneuve-d'Ascq dans la toute nouvelle université. Le laboratoire de chimie biologique est devenue depuis l'unité mixte de recherche USTL/ CNRS n° 8576. Cette unité compte actuellement 9 services et une centaine de chercheurs. Il a contribué à la rédaction d'une vingtaine d'ouvrages et a signé 750 publications[2].
+Il a notamment créé en 1958 le Laboratoire de chimie biologique de l'université des sciences et technologies de Lille à Lille : rue Gosselet puis en 1963 à Villeneuve-d'Ascq dans la toute nouvelle université. Le laboratoire de chimie biologique est devenue depuis l'unité mixte de recherche USTL/ CNRS n° 8576. Cette unité compte actuellement 9 services et une centaine de chercheurs. Il a contribué à la rédaction d'une vingtaine d'ouvrages et a signé 750 publications.
 Il était :
 Professeur émérite à l'université des sciences et technologies de Lille
 Membre de l'Académie de médecine de Paris (1979)
@@ -526,7 +540,7 @@
 Docteur honoris causa de l'université Vasile Goldis d'Arad, Roumanie (2006)
 Décorations :
 Commandeur de l’ordre national du Mérite, commandeur des Palmes académiques
-Contributions scientifiques majeures[3] :
+Contributions scientifiques majeures :
 Jean Montreuil, avec Geneviève Spik et d'autres collaborateurs,
 – a découvert et isolé les immunoglobulines IgA  et la transferrine (lactotransferrine) du lait ;
 – a isolé et déterminé la structure de nombreux glycannes complexes (oligosides) en particulier ceux du lait de femme ;
